--- a/infile111.xlsx
+++ b/infile111.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongluu/Desktop/ExcellTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongluu/Desktop/ExcellTest/test1/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>123</v>
+        <v>11123</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>

--- a/infile111.xlsx
+++ b/infile111.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongluu/Desktop/ExcellTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongluu/Desktop/ExcellTest/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -462,12 +462,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -475,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
